--- a/script/xlsx2lang/excel/语言@Lang.xlsx
+++ b/script/xlsx2lang/excel/语言@Lang.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
   <si>
     <t>键值</t>
   </si>
@@ -5665,6 +5665,33 @@
   </si>
   <si>
     <t>Moedas insuficientes.</t>
+  </si>
+  <si>
+    <t>str_pstf</t>
+  </si>
+  <si>
+    <t>Please stop rotating first.</t>
+  </si>
+  <si>
+    <t>Por favor, pare de girar primeiro.</t>
+  </si>
+  <si>
+    <t>str_teif</t>
+  </si>
+  <si>
+    <t>The energy is full.</t>
+  </si>
+  <si>
+    <t>A energia está completa.</t>
+  </si>
+  <si>
+    <t>str_twcynt</t>
+  </si>
+  <si>
+    <t>To withdraw cash, you need to queue up. There are still %s people ahead of you.</t>
+  </si>
+  <si>
+    <t>Para sacar dinheiro, você precisa entrar na fila. Ainda há %s pessoas na sua frente.</t>
   </si>
 </sst>
 </file>
@@ -6769,7 +6796,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B18" sqref="B18"/>
+      <selection pane="bottomRight" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -7142,13 +7169,39 @@
         <v>104</v>
       </c>
     </row>
-    <row r="18" ht="21" customHeight="1" spans="1:1">
-      <c r="A18" s="7"/>
+    <row r="18" ht="21" customHeight="1" spans="1:3">
+      <c r="A18" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>107</v>
+      </c>
     </row>
-    <row r="19" ht="21" customHeight="1" spans="1:1">
-      <c r="A19" s="7"/>
+    <row r="19" ht="21" customHeight="1" spans="1:3">
+      <c r="A19" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>110</v>
+      </c>
     </row>
-    <row r="20" ht="21" customHeight="1"/>
+    <row r="20" ht="21" customHeight="1" spans="1:3">
+      <c r="A20" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
     <row r="21" ht="21" customHeight="1"/>
     <row r="22" ht="21" customHeight="1"/>
     <row r="23" ht="21" customHeight="1"/>
